--- a/Program Report Page.xlsx
+++ b/Program Report Page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/Codes + Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7D650B-E20D-FE42-98FE-8E3AC50FF560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B2E16-C5B7-AE44-B835-0875D58BF921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-7740" windowWidth="38400" windowHeight="21100" xr2:uid="{56F6261A-643D-D442-AAD7-D69978890D25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Automated LTP Program</t>
   </si>
@@ -81,13 +81,16 @@
   </si>
   <si>
     <t>Stage of premature stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Run Time </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +124,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,30 +192,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{4B136A7B-EEFA-3647-8C79-B12E91A8A9CA}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -223,16 +235,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -255,7 +257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -543,7 +545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -554,7 +556,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,20 +570,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -594,50 +596,54 @@
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>

--- a/Program Report Page.xlsx
+++ b/Program Report Page.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/Codes + Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/Scope 2/Codes + Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B2E16-C5B7-AE44-B835-0875D58BF921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD06E33D-5E93-8142-AD7F-F1D7203001E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-7740" windowWidth="38400" windowHeight="21100" xr2:uid="{56F6261A-643D-D442-AAD7-D69978890D25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Automated LTP Program</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total Run Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max PE Silos Setting: </t>
   </si>
 </sst>
 </file>
@@ -205,13 +208,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0674A6-7EE7-EC49-A7E5-3D8BB324C3CE}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,11 +573,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -586,14 +589,14 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -631,7 +634,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="1"/>
@@ -647,6 +650,12 @@
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Program Report Page.xlsx
+++ b/Program Report Page.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/Scope 2/Codes + Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Desktop/Scope 2/Completed Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD06E33D-5E93-8142-AD7F-F1D7203001E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D802EC5-979B-3144-82FA-F08F97D6A8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-7740" windowWidth="38400" windowHeight="21100" xr2:uid="{56F6261A-643D-D442-AAD7-D69978890D25}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{56F6261A-643D-D442-AAD7-D69978890D25}"/>
   </bookViews>
   <sheets>
     <sheet name="Program Report Page" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Automated LTP Program</t>
   </si>
@@ -87,13 +87,31 @@
   </si>
   <si>
     <t xml:space="preserve">Max PE Silos Setting: </t>
+  </si>
+  <si>
+    <t>Stage 1 PP Can Step Count</t>
+  </si>
+  <si>
+    <t>Stage 4 PP Can Step Count</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>User Defined Settings</t>
+  </si>
+  <si>
+    <t>Dryer 1 v. Dryer 2 Threshold Limit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,8 +156,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -209,11 +240,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,10 +594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0674A6-7EE7-EC49-A7E5-3D8BB324C3CE}">
-  <dimension ref="A1:I10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -573,11 +612,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -589,21 +628,23 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
@@ -618,7 +659,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
@@ -633,7 +676,9 @@
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
@@ -651,17 +696,50 @@
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B11" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="50" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
